--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/U2T1-U2T2-U2T3.G1_SWI_NRC10519_HU_V2.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/U2T1-U2T2-U2T3.G1_SWI_NRC10519_HU_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7C4D8227-1729-43A6-A114-ACC9CEF97238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BDD50B-A8D5-46A3-AB90-1547DDB4F253}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7C4D8227-1729-43A6-A114-ACC9CEF97238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA7C5E5-B553-4B37-9499-28901B918A88}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="1320" windowWidth="10332" windowHeight="9912" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Marco de Trabajo de H" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>@dropdown</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Mostrar los diferentes productos que cuenta la empresa.</t>
+  </si>
+  <si>
+    <t>CARRUSEL DE IMÁGENES</t>
+  </si>
+  <si>
+    <t>Mostrar movieminto en las imágenes de los productos de la empresa</t>
   </si>
 </sst>
 </file>
@@ -1183,77 +1189,77 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,25 +1687,27 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" customWidth="1"/>
     <col min="4" max="4" width="20.59765625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="11" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="25.69921875" customWidth="1"/>
     <col min="14" max="14" width="26.59765625" customWidth="1"/>
-    <col min="15" max="15" width="20.59765625" customWidth="1"/>
+    <col min="15" max="15" width="22.3984375" customWidth="1"/>
     <col min="16" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1933,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>74</v>
@@ -7894,7 +7902,7 @@
   </sheetPr>
   <dimension ref="B2:P834"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E82" sqref="E82:O83"/>
     </sheetView>
   </sheetViews>
@@ -7924,23 +7932,23 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="90"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="71"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -7982,15 +7990,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -8005,15 +8013,15 @@
         <v>16</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="90"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="24"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -8045,15 +8053,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="24"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -8068,15 +8076,15 @@
         <v>51</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="90"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="24"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -8107,62 +8115,62 @@
       <c r="C15" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="79"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="29"/>
       <c r="G15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="79"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="29"/>
       <c r="L15" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="79"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="73"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="68"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="29"/>
       <c r="G16" s="68"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="66"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="29"/>
       <c r="L16" s="68"/>
-      <c r="M16" s="86"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="87"/>
+      <c r="O16" s="75"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="69"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="29"/>
       <c r="G17" s="69"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="103"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
       <c r="K17" s="29"/>
       <c r="L17" s="69"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="103"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,40 +8192,40 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="79"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="103"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8239,61 +8247,61 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="105" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="79"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="85" t="s">
+      <c r="J22" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="88" t="s">
+      <c r="K22" s="73"/>
+      <c r="L22" s="78" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
-      <c r="O22" s="87"/>
+      <c r="O22" s="75"/>
       <c r="P22" s="30"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="86"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
-      <c r="H23" s="87"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="66"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
-      <c r="O23" s="87"/>
+      <c r="O23" s="75"/>
       <c r="P23" s="30"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="103"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="103"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8331,23 +8339,23 @@
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="90"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="71"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -8389,15 +8397,15 @@
         <v>2</v>
       </c>
       <c r="D30" s="61"/>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="61"/>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="90"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
@@ -8412,15 +8420,15 @@
         <v>20</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="90"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="33"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -8452,15 +8460,15 @@
         <v>29</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="90"/>
+      <c r="F33" s="71"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="95" t="s">
+      <c r="H33" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="90"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="33"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64"/>
@@ -8475,15 +8483,15 @@
         <v>51</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="89" t="s">
+      <c r="E34" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="90"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="90"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="33"/>
       <c r="K34" s="64"/>
       <c r="L34" s="64"/>
@@ -8514,61 +8522,61 @@
       <c r="C36" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="32"/>
       <c r="G36" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="91" t="s">
+      <c r="H36" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="79"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="32"/>
       <c r="L36" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="98" t="s">
+      <c r="M36" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="71"/>
-      <c r="O36" s="72"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="96"/>
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="60"/>
       <c r="C37" s="68"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="32"/>
       <c r="G37" s="68"/>
-      <c r="H37" s="86"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="66"/>
-      <c r="J37" s="87"/>
+      <c r="J37" s="75"/>
       <c r="K37" s="32"/>
       <c r="L37" s="68"/>
-      <c r="M37" s="73"/>
+      <c r="M37" s="97"/>
       <c r="N37" s="66"/>
-      <c r="O37" s="74"/>
+      <c r="O37" s="98"/>
       <c r="P37" s="62"/>
     </row>
     <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="60"/>
       <c r="C38" s="69"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="32"/>
       <c r="G38" s="69"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="81"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="32"/>
       <c r="L38" s="69"/>
       <c r="M38" s="99"/>
-      <c r="N38" s="84"/>
+      <c r="N38" s="79"/>
       <c r="O38" s="100"/>
       <c r="P38" s="62"/>
     </row>
@@ -8591,40 +8599,40 @@
     </row>
     <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="60"/>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="82" t="s">
+      <c r="D40" s="73"/>
+      <c r="E40" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="79"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="73"/>
       <c r="P40" s="62"/>
     </row>
     <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="60"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="81"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="77"/>
       <c r="P41" s="62"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8646,61 +8654,61 @@
     </row>
     <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="60"/>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="106" t="s">
+      <c r="D43" s="73"/>
+      <c r="E43" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="79"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="73"/>
       <c r="I43" s="32"/>
-      <c r="J43" s="85" t="s">
+      <c r="J43" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="79"/>
-      <c r="L43" s="88" t="s">
+      <c r="K43" s="73"/>
+      <c r="L43" s="78" t="s">
         <v>54</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
-      <c r="O43" s="87"/>
+      <c r="O43" s="75"/>
       <c r="P43" s="62"/>
     </row>
     <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="60"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="86"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="74"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
-      <c r="H44" s="87"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="87"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="75"/>
       <c r="L44" s="66"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
-      <c r="O44" s="87"/>
+      <c r="O44" s="75"/>
       <c r="P44" s="62"/>
     </row>
     <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="60"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="81"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="77"/>
       <c r="I45" s="32"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="81"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="77"/>
       <c r="P45" s="62"/>
     </row>
     <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8738,23 +8746,23 @@
       <c r="P47" s="11"/>
     </row>
     <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="90"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="71"/>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
@@ -8796,15 +8804,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="61"/>
-      <c r="E51" s="95" t="s">
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="90"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="95" t="s">
+      <c r="H51" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="90"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
@@ -8819,15 +8827,15 @@
         <v>21</v>
       </c>
       <c r="D52" s="33"/>
-      <c r="E52" s="89" t="s">
+      <c r="E52" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="90"/>
+      <c r="F52" s="71"/>
       <c r="G52" s="33"/>
-      <c r="H52" s="89" t="s">
+      <c r="H52" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I52" s="90"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="33"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
@@ -8859,15 +8867,15 @@
         <v>29</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="90"/>
+      <c r="F54" s="71"/>
       <c r="G54" s="33"/>
-      <c r="H54" s="95" t="s">
+      <c r="H54" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="90"/>
+      <c r="I54" s="71"/>
       <c r="J54" s="33"/>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -8882,15 +8890,15 @@
         <v>51</v>
       </c>
       <c r="D55" s="33"/>
-      <c r="E55" s="89" t="s">
+      <c r="E55" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="90"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="33"/>
-      <c r="H55" s="89" t="s">
+      <c r="H55" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="I55" s="90"/>
+      <c r="I55" s="71"/>
       <c r="J55" s="33"/>
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
@@ -8921,62 +8929,62 @@
       <c r="C57" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="107" t="s">
+      <c r="D57" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="72"/>
+      <c r="E57" s="96"/>
       <c r="F57" s="32"/>
       <c r="G57" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="79"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="73"/>
       <c r="K57" s="32"/>
       <c r="L57" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M57" s="107" t="s">
+      <c r="M57" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="N57" s="71"/>
-      <c r="O57" s="72"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="96"/>
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="60"/>
       <c r="C58" s="68"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="32"/>
       <c r="G58" s="68"/>
-      <c r="H58" s="86"/>
+      <c r="H58" s="74"/>
       <c r="I58" s="66"/>
-      <c r="J58" s="87"/>
+      <c r="J58" s="75"/>
       <c r="K58" s="32"/>
       <c r="L58" s="68"/>
-      <c r="M58" s="73"/>
+      <c r="M58" s="97"/>
       <c r="N58" s="66"/>
-      <c r="O58" s="74"/>
+      <c r="O58" s="98"/>
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="60"/>
       <c r="C59" s="69"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="77"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="104"/>
       <c r="F59" s="32"/>
       <c r="G59" s="69"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="81"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="77"/>
       <c r="K59" s="32"/>
       <c r="L59" s="69"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="77"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="104"/>
       <c r="P59" s="62"/>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,40 +9006,40 @@
     </row>
     <row r="61" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="60"/>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="82" t="s">
+      <c r="D61" s="73"/>
+      <c r="E61" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="79"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="73"/>
       <c r="P61" s="62"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="60"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="81"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="77"/>
       <c r="P62" s="62"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9053,61 +9061,61 @@
     </row>
     <row r="64" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="60"/>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="107" t="s">
+      <c r="D64" s="73"/>
+      <c r="E64" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="72"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="96"/>
       <c r="I64" s="32"/>
-      <c r="J64" s="85" t="s">
+      <c r="J64" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="79"/>
-      <c r="L64" s="88" t="s">
+      <c r="K64" s="73"/>
+      <c r="L64" s="78" t="s">
         <v>54</v>
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
-      <c r="O64" s="87"/>
+      <c r="O64" s="75"/>
       <c r="P64" s="62"/>
     </row>
     <row r="65" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="60"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="66"/>
       <c r="G65" s="66"/>
-      <c r="H65" s="74"/>
+      <c r="H65" s="98"/>
       <c r="I65" s="32"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="87"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="75"/>
       <c r="L65" s="66"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
-      <c r="O65" s="87"/>
+      <c r="O65" s="75"/>
       <c r="P65" s="62"/>
     </row>
     <row r="66" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="60"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="104"/>
       <c r="I66" s="32"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="81"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="77"/>
       <c r="P66" s="62"/>
     </row>
     <row r="67" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9145,23 +9153,23 @@
       <c r="P68" s="11"/>
     </row>
     <row r="69" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="97"/>
-      <c r="M69" s="97"/>
-      <c r="N69" s="97"/>
-      <c r="O69" s="97"/>
-      <c r="P69" s="90"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="71"/>
     </row>
     <row r="70" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
@@ -9203,15 +9211,15 @@
         <v>2</v>
       </c>
       <c r="D72" s="61"/>
-      <c r="E72" s="95" t="s">
+      <c r="E72" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="90"/>
+      <c r="F72" s="71"/>
       <c r="G72" s="61"/>
-      <c r="H72" s="95" t="s">
+      <c r="H72" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="90"/>
+      <c r="I72" s="71"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
@@ -9226,15 +9234,15 @@
         <v>70</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="89" t="s">
+      <c r="E73" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="90"/>
+      <c r="F73" s="71"/>
       <c r="G73" s="33"/>
-      <c r="H73" s="89" t="s">
+      <c r="H73" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="I73" s="90"/>
+      <c r="I73" s="71"/>
       <c r="J73" s="33"/>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
@@ -9266,15 +9274,15 @@
         <v>29</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="95" t="s">
+      <c r="E75" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="90"/>
+      <c r="F75" s="71"/>
       <c r="G75" s="33"/>
-      <c r="H75" s="95" t="s">
+      <c r="H75" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I75" s="90"/>
+      <c r="I75" s="71"/>
       <c r="J75" s="33"/>
       <c r="K75" s="64"/>
       <c r="L75" s="64"/>
@@ -9289,17 +9297,17 @@
         <v>81</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="89" t="s">
+      <c r="E76" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="90"/>
+      <c r="F76" s="71"/>
       <c r="G76" s="33"/>
-      <c r="H76" s="92" t="s">
+      <c r="H76" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="I76" s="93"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="94"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="107"/>
       <c r="L76" s="64"/>
       <c r="M76" s="32"/>
       <c r="N76" s="64"/>
@@ -9328,62 +9336,62 @@
       <c r="C78" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E78" s="72"/>
+      <c r="E78" s="96"/>
       <c r="F78" s="32"/>
       <c r="G78" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="91" t="s">
+      <c r="H78" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="I78" s="83"/>
-      <c r="J78" s="79"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="73"/>
       <c r="K78" s="32"/>
       <c r="L78" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M78" s="70" t="s">
+      <c r="M78" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="N78" s="71"/>
-      <c r="O78" s="72"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="96"/>
       <c r="P78" s="62"/>
     </row>
     <row r="79" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="60"/>
       <c r="C79" s="68"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="32"/>
       <c r="G79" s="68"/>
-      <c r="H79" s="86"/>
+      <c r="H79" s="74"/>
       <c r="I79" s="66"/>
-      <c r="J79" s="87"/>
+      <c r="J79" s="75"/>
       <c r="K79" s="32"/>
       <c r="L79" s="68"/>
-      <c r="M79" s="73"/>
+      <c r="M79" s="97"/>
       <c r="N79" s="66"/>
-      <c r="O79" s="74"/>
+      <c r="O79" s="98"/>
       <c r="P79" s="62"/>
     </row>
     <row r="80" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="60"/>
       <c r="C80" s="69"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="77"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="32"/>
       <c r="G80" s="69"/>
-      <c r="H80" s="80"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="81"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="77"/>
       <c r="K80" s="32"/>
       <c r="L80" s="69"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="77"/>
+      <c r="M80" s="102"/>
+      <c r="N80" s="103"/>
+      <c r="O80" s="104"/>
       <c r="P80" s="62"/>
     </row>
     <row r="81" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9405,40 +9413,40 @@
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="60"/>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="79"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="73"/>
       <c r="P82" s="62"/>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="60"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="81"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="77"/>
       <c r="P83" s="62"/>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9460,61 +9468,61 @@
     </row>
     <row r="85" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="60"/>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="79"/>
-      <c r="E85" s="70" t="s">
+      <c r="D85" s="73"/>
+      <c r="E85" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="72"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="96"/>
       <c r="I85" s="32"/>
-      <c r="J85" s="85" t="s">
+      <c r="J85" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="79"/>
-      <c r="L85" s="88" t="s">
+      <c r="K85" s="73"/>
+      <c r="L85" s="78" t="s">
         <v>54</v>
       </c>
       <c r="M85" s="66"/>
       <c r="N85" s="66"/>
-      <c r="O85" s="87"/>
+      <c r="O85" s="75"/>
       <c r="P85" s="62"/>
     </row>
     <row r="86" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="60"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="73"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="97"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
-      <c r="H86" s="74"/>
+      <c r="H86" s="98"/>
       <c r="I86" s="32"/>
-      <c r="J86" s="86"/>
-      <c r="K86" s="87"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="75"/>
       <c r="L86" s="66"/>
       <c r="M86" s="66"/>
       <c r="N86" s="66"/>
-      <c r="O86" s="87"/>
+      <c r="O86" s="75"/>
       <c r="P86" s="62"/>
     </row>
     <row r="87" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="60"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="77"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="104"/>
       <c r="I87" s="32"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="84"/>
-      <c r="M87" s="84"/>
-      <c r="N87" s="84"/>
-      <c r="O87" s="81"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="77"/>
       <c r="P87" s="62"/>
     </row>
     <row r="88" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10282,6 +10290,74 @@
     <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="M78:O80"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:O83"/>
+    <mergeCell ref="C85:D87"/>
+    <mergeCell ref="E85:H87"/>
+    <mergeCell ref="J85:K87"/>
+    <mergeCell ref="L85:O87"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:E80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:J80"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B69:P69"/>
+    <mergeCell ref="M57:O59"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:O62"/>
+    <mergeCell ref="C64:D66"/>
+    <mergeCell ref="E64:H66"/>
+    <mergeCell ref="J64:K66"/>
+    <mergeCell ref="L64:O66"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:J59"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="M36:O38"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:O41"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J17"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="L22:O24"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="L57:L59"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H34:I34"/>
@@ -10297,75 +10373,7 @@
     <mergeCell ref="C43:D45"/>
     <mergeCell ref="E43:H45"/>
     <mergeCell ref="J43:K45"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
     <mergeCell ref="H36:J38"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="M36:O38"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:O41"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B69:P69"/>
-    <mergeCell ref="M57:O59"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:O62"/>
-    <mergeCell ref="C64:D66"/>
-    <mergeCell ref="E64:H66"/>
-    <mergeCell ref="J64:K66"/>
-    <mergeCell ref="L64:O66"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:J59"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:E80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:J80"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="M78:O80"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E82:O83"/>
-    <mergeCell ref="C85:D87"/>
-    <mergeCell ref="E85:H87"/>
-    <mergeCell ref="J85:K87"/>
-    <mergeCell ref="L85:O87"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">

--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/U2T1-U2T2-U2T3.G1_SWI_NRC10519_HU_V2.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/U2T1-U2T2-U2T3.G1_SWI_NRC10519_HU_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.3 HISTORIAS DE USUARIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7C4D8227-1729-43A6-A114-ACC9CEF97238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EA7C5E5-B553-4B37-9499-28901B918A88}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{7C4D8227-1729-43A6-A114-ACC9CEF97238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBF9577-E9B6-44EC-B74B-7E1C14744597}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>@dropdown</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Atraer clientes o usuarios frecuentes</t>
   </si>
   <si>
-    <t xml:space="preserve">  4 Horas</t>
-  </si>
-  <si>
     <t>Ingresar a la pagina Web, seleccionando el apartado de menú.</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
   </si>
   <si>
     <t>Mostrar al usuario la búsqueda correspondiente que requirio en cuestión al producto necesitado</t>
-  </si>
-  <si>
-    <t>Joshep Andino, Jefferson Aguilar</t>
   </si>
   <si>
     <t>Mateo Baquero, Mateo Amaguaya</t>
@@ -272,9 +266,6 @@
     <t>Alan Almeida, Jefferson Aguilar</t>
   </si>
   <si>
-    <t xml:space="preserve">  2 Horas</t>
-  </si>
-  <si>
     <t>Mostrar en la página web las imágenes en forma de carrusel de imágenes</t>
   </si>
   <si>
@@ -294,6 +285,18 @@
   </si>
   <si>
     <t>Mostrar movieminto en las imágenes de los productos de la empresa</t>
+  </si>
+  <si>
+    <t>6 Horas</t>
+  </si>
+  <si>
+    <t>Joseph Andino, Jefferson Aguilar</t>
+  </si>
+  <si>
+    <t>5 Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 Horas</t>
   </si>
 </sst>
 </file>
@@ -1184,43 +1187,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1232,6 +1222,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,6 +1246,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1687,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:S989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="J6" s="41">
         <v>45122</v>
@@ -1844,22 +1847,22 @@
         <v>20</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I7" s="47" t="s">
         <v>38</v>
@@ -1874,13 +1877,13 @@
         <v>19</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="46" t="s">
         <v>54</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>55</v>
       </c>
       <c r="P7" s="6"/>
     </row>
@@ -1889,25 +1892,25 @@
         <v>21</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J8" s="54">
         <v>45122</v>
@@ -1919,13 +1922,13 @@
         <v>19</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1935,28 +1938,28 @@
     <row r="9" spans="1:19" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="D9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J9" s="54">
         <v>45126</v>
@@ -1968,13 +1971,13 @@
         <v>19</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -7902,8 +7905,8 @@
   </sheetPr>
   <dimension ref="B2:P834"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:O83"/>
+    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7932,23 +7935,23 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="71"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="77"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -7990,15 +7993,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -8013,15 +8016,15 @@
         <v>16</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="71"/>
+      <c r="H10" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="77"/>
       <c r="J10" s="24"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -8053,15 +8056,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="24"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -8073,18 +8076,18 @@
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="71"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="24"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -8112,65 +8115,65 @@
     </row>
     <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="73"/>
+      <c r="D15" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="68"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="73"/>
+      <c r="H15" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="74"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="66"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="74"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="66"/>
-      <c r="O16" s="75"/>
+      <c r="O16" s="70"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="89"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="84"/>
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8192,40 +8195,40 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="73"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="68"/>
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="89"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8247,61 +8250,61 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="92" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="78" t="s">
+      <c r="K22" s="68"/>
+      <c r="L22" s="88" t="s">
         <v>43</v>
       </c>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
-      <c r="O22" s="75"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="30"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
-      <c r="H23" s="75"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="66"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
-      <c r="O23" s="75"/>
+      <c r="O23" s="70"/>
       <c r="P23" s="30"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="84"/>
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8339,23 +8342,23 @@
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="71"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="77"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -8397,15 +8400,15 @@
         <v>2</v>
       </c>
       <c r="D30" s="61"/>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="71"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="61"/>
-      <c r="H30" s="82" t="s">
+      <c r="H30" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="71"/>
+      <c r="I30" s="77"/>
       <c r="J30" s="32"/>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
@@ -8420,15 +8423,15 @@
         <v>20</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="71"/>
+      <c r="H31" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="77"/>
       <c r="J31" s="33"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -8460,15 +8463,15 @@
         <v>29</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="71"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="33"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64"/>
@@ -8480,18 +8483,18 @@
     <row r="34" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="60"/>
       <c r="C34" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="33"/>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="71"/>
+      <c r="H34" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="77"/>
       <c r="J34" s="33"/>
       <c r="K34" s="64"/>
       <c r="L34" s="64"/>
@@ -8519,65 +8522,65 @@
     </row>
     <row r="36" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="60"/>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="73"/>
+      <c r="D36" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="68"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="74"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="M36" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="N36" s="95"/>
-      <c r="O36" s="96"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
       <c r="P36" s="62"/>
     </row>
     <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="60"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="74"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="66"/>
-      <c r="J37" s="75"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="32"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="97"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="96"/>
       <c r="N37" s="66"/>
-      <c r="O37" s="98"/>
+      <c r="O37" s="97"/>
       <c r="P37" s="62"/>
     </row>
     <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="60"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="77"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="72"/>
       <c r="K38" s="32"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="100"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="99"/>
       <c r="P38" s="62"/>
     </row>
     <row r="39" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8599,40 +8602,40 @@
     </row>
     <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="60"/>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="73"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="68"/>
       <c r="P40" s="62"/>
     </row>
     <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="60"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="77"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="72"/>
       <c r="P41" s="62"/>
     </row>
     <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8654,61 +8657,61 @@
     </row>
     <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="60"/>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="73"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="32"/>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="73"/>
-      <c r="L43" s="78" t="s">
-        <v>54</v>
+      <c r="K43" s="68"/>
+      <c r="L43" s="88" t="s">
+        <v>53</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
-      <c r="O43" s="75"/>
+      <c r="O43" s="70"/>
       <c r="P43" s="62"/>
     </row>
     <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="60"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="74"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
-      <c r="H44" s="75"/>
+      <c r="H44" s="70"/>
       <c r="I44" s="32"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="75"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="70"/>
       <c r="L44" s="66"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
-      <c r="O44" s="75"/>
+      <c r="O44" s="70"/>
       <c r="P44" s="62"/>
     </row>
     <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="60"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="77"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="32"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="77"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="72"/>
       <c r="P45" s="62"/>
     </row>
     <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8746,23 +8749,23 @@
       <c r="P47" s="11"/>
     </row>
     <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="71"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="77"/>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
@@ -8804,15 +8807,15 @@
         <v>2</v>
       </c>
       <c r="D51" s="61"/>
-      <c r="E51" s="82" t="s">
+      <c r="E51" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="71"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="82" t="s">
+      <c r="H51" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="71"/>
+      <c r="I51" s="77"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
@@ -8827,15 +8830,15 @@
         <v>21</v>
       </c>
       <c r="D52" s="33"/>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="71"/>
+      <c r="F52" s="77"/>
       <c r="G52" s="33"/>
-      <c r="H52" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" s="71"/>
+      <c r="H52" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="77"/>
       <c r="J52" s="33"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
@@ -8867,15 +8870,15 @@
         <v>29</v>
       </c>
       <c r="D54" s="33"/>
-      <c r="E54" s="82" t="s">
+      <c r="E54" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="71"/>
+      <c r="F54" s="77"/>
       <c r="G54" s="33"/>
-      <c r="H54" s="82" t="s">
+      <c r="H54" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="71"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="33"/>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -8887,18 +8890,18 @@
     <row r="55" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="60"/>
       <c r="C55" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="33"/>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="71"/>
+      <c r="F55" s="77"/>
       <c r="G55" s="33"/>
-      <c r="H55" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="71"/>
+      <c r="H55" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="77"/>
       <c r="J55" s="33"/>
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
@@ -8926,62 +8929,62 @@
     </row>
     <row r="57" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="60"/>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="96"/>
+        <v>65</v>
+      </c>
+      <c r="E57" s="95"/>
       <c r="F57" s="32"/>
-      <c r="G57" s="67" t="s">
+      <c r="G57" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="85"/>
-      <c r="J57" s="73"/>
+      <c r="H57" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="74"/>
+      <c r="J57" s="68"/>
       <c r="K57" s="32"/>
-      <c r="L57" s="67" t="s">
+      <c r="L57" s="78" t="s">
         <v>34</v>
       </c>
       <c r="M57" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="N57" s="95"/>
-      <c r="O57" s="96"/>
+        <v>58</v>
+      </c>
+      <c r="N57" s="94"/>
+      <c r="O57" s="95"/>
       <c r="P57" s="62"/>
     </row>
     <row r="58" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="60"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
       <c r="F58" s="32"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="74"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="69"/>
       <c r="I58" s="66"/>
-      <c r="J58" s="75"/>
+      <c r="J58" s="70"/>
       <c r="K58" s="32"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="97"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="96"/>
       <c r="N58" s="66"/>
-      <c r="O58" s="98"/>
+      <c r="O58" s="97"/>
       <c r="P58" s="62"/>
     </row>
     <row r="59" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="60"/>
-      <c r="C59" s="69"/>
+      <c r="C59" s="80"/>
       <c r="D59" s="102"/>
       <c r="E59" s="104"/>
       <c r="F59" s="32"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="77"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="72"/>
       <c r="K59" s="32"/>
-      <c r="L59" s="69"/>
+      <c r="L59" s="80"/>
       <c r="M59" s="102"/>
       <c r="N59" s="103"/>
       <c r="O59" s="104"/>
@@ -9006,40 +9009,40 @@
     </row>
     <row r="61" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="60"/>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="73"/>
-      <c r="E61" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="73"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="68"/>
       <c r="P61" s="62"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="60"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="77"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="75"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="72"/>
       <c r="P62" s="62"/>
     </row>
     <row r="63" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9061,61 +9064,61 @@
     </row>
     <row r="64" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="60"/>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="73"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="F64" s="94"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="95"/>
       <c r="I64" s="32"/>
-      <c r="J64" s="83" t="s">
+      <c r="J64" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="73"/>
-      <c r="L64" s="78" t="s">
-        <v>54</v>
+      <c r="K64" s="68"/>
+      <c r="L64" s="88" t="s">
+        <v>53</v>
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
-      <c r="O64" s="75"/>
+      <c r="O64" s="70"/>
       <c r="P64" s="62"/>
     </row>
     <row r="65" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="60"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="97"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="66"/>
       <c r="G65" s="66"/>
-      <c r="H65" s="98"/>
+      <c r="H65" s="97"/>
       <c r="I65" s="32"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="75"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="70"/>
       <c r="L65" s="66"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
-      <c r="O65" s="75"/>
+      <c r="O65" s="70"/>
       <c r="P65" s="62"/>
     </row>
     <row r="66" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="60"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
       <c r="E66" s="102"/>
       <c r="F66" s="103"/>
       <c r="G66" s="103"/>
       <c r="H66" s="104"/>
       <c r="I66" s="32"/>
-      <c r="J66" s="76"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
-      <c r="N66" s="79"/>
-      <c r="O66" s="77"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="72"/>
       <c r="P66" s="62"/>
     </row>
     <row r="67" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9153,23 +9156,23 @@
       <c r="P68" s="11"/>
     </row>
     <row r="69" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="81"/>
-      <c r="P69" s="71"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="77"/>
     </row>
     <row r="70" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
@@ -9211,15 +9214,15 @@
         <v>2</v>
       </c>
       <c r="D72" s="61"/>
-      <c r="E72" s="82" t="s">
+      <c r="E72" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="71"/>
+      <c r="F72" s="77"/>
       <c r="G72" s="61"/>
-      <c r="H72" s="82" t="s">
+      <c r="H72" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="71"/>
+      <c r="I72" s="77"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
@@ -9231,18 +9234,18 @@
     <row r="73" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="60"/>
       <c r="C73" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="71"/>
+      <c r="F73" s="77"/>
       <c r="G73" s="33"/>
-      <c r="H73" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" s="71"/>
+      <c r="H73" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="77"/>
       <c r="J73" s="33"/>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
@@ -9274,15 +9277,15 @@
         <v>29</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="82" t="s">
+      <c r="E75" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="71"/>
+      <c r="F75" s="77"/>
       <c r="G75" s="33"/>
-      <c r="H75" s="82" t="s">
+      <c r="H75" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="I75" s="71"/>
+      <c r="I75" s="77"/>
       <c r="J75" s="33"/>
       <c r="K75" s="64"/>
       <c r="L75" s="64"/>
@@ -9294,16 +9297,16 @@
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="60"/>
       <c r="C76" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="70" t="s">
+      <c r="E76" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" s="71"/>
+      <c r="F76" s="77"/>
       <c r="G76" s="33"/>
-      <c r="H76" s="93" t="s">
-        <v>80</v>
+      <c r="H76" s="92" t="s">
+        <v>77</v>
       </c>
       <c r="I76" s="106"/>
       <c r="J76" s="106"/>
@@ -9333,62 +9336,62 @@
     </row>
     <row r="78" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="60"/>
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D78" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E78" s="96"/>
+        <v>79</v>
+      </c>
+      <c r="E78" s="95"/>
       <c r="F78" s="32"/>
-      <c r="G78" s="67" t="s">
+      <c r="G78" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="I78" s="85"/>
-      <c r="J78" s="73"/>
+      <c r="H78" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78" s="74"/>
+      <c r="J78" s="68"/>
       <c r="K78" s="32"/>
-      <c r="L78" s="67" t="s">
+      <c r="L78" s="78" t="s">
         <v>34</v>
       </c>
       <c r="M78" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="N78" s="95"/>
-      <c r="O78" s="96"/>
+        <v>72</v>
+      </c>
+      <c r="N78" s="94"/>
+      <c r="O78" s="95"/>
       <c r="P78" s="62"/>
     </row>
     <row r="79" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="60"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="98"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="32"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="74"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="69"/>
       <c r="I79" s="66"/>
-      <c r="J79" s="75"/>
+      <c r="J79" s="70"/>
       <c r="K79" s="32"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="97"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="96"/>
       <c r="N79" s="66"/>
-      <c r="O79" s="98"/>
+      <c r="O79" s="97"/>
       <c r="P79" s="62"/>
     </row>
     <row r="80" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="60"/>
-      <c r="C80" s="69"/>
+      <c r="C80" s="80"/>
       <c r="D80" s="102"/>
       <c r="E80" s="104"/>
       <c r="F80" s="32"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="77"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="72"/>
       <c r="K80" s="32"/>
-      <c r="L80" s="69"/>
+      <c r="L80" s="80"/>
       <c r="M80" s="102"/>
       <c r="N80" s="103"/>
       <c r="O80" s="104"/>
@@ -9413,40 +9416,40 @@
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="60"/>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="73"/>
-      <c r="E82" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
-      <c r="M82" s="85"/>
-      <c r="N82" s="85"/>
-      <c r="O82" s="73"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="68"/>
       <c r="P82" s="62"/>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="60"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="79"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="77"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="75"/>
+      <c r="N83" s="75"/>
+      <c r="O83" s="72"/>
       <c r="P83" s="62"/>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,61 +9471,61 @@
     </row>
     <row r="85" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="60"/>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="73"/>
+      <c r="D85" s="68"/>
       <c r="E85" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="96"/>
+        <v>75</v>
+      </c>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="95"/>
       <c r="I85" s="32"/>
-      <c r="J85" s="83" t="s">
+      <c r="J85" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="73"/>
-      <c r="L85" s="78" t="s">
-        <v>54</v>
+      <c r="K85" s="68"/>
+      <c r="L85" s="88" t="s">
+        <v>53</v>
       </c>
       <c r="M85" s="66"/>
       <c r="N85" s="66"/>
-      <c r="O85" s="75"/>
+      <c r="O85" s="70"/>
       <c r="P85" s="62"/>
     </row>
     <row r="86" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="60"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="97"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="96"/>
       <c r="F86" s="66"/>
       <c r="G86" s="66"/>
-      <c r="H86" s="98"/>
+      <c r="H86" s="97"/>
       <c r="I86" s="32"/>
-      <c r="J86" s="74"/>
-      <c r="K86" s="75"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="70"/>
       <c r="L86" s="66"/>
       <c r="M86" s="66"/>
       <c r="N86" s="66"/>
-      <c r="O86" s="75"/>
+      <c r="O86" s="70"/>
       <c r="P86" s="62"/>
     </row>
     <row r="87" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="60"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="77"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="72"/>
       <c r="E87" s="102"/>
       <c r="F87" s="103"/>
       <c r="G87" s="103"/>
       <c r="H87" s="104"/>
       <c r="I87" s="32"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
-      <c r="O87" s="77"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="75"/>
+      <c r="N87" s="75"/>
+      <c r="O87" s="72"/>
       <c r="P87" s="62"/>
     </row>
     <row r="88" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10322,6 +10325,7 @@
     <mergeCell ref="D57:E59"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="H57:J59"/>
+    <mergeCell ref="L57:L59"/>
     <mergeCell ref="L36:L38"/>
     <mergeCell ref="M36:O38"/>
     <mergeCell ref="C40:D41"/>
@@ -10330,6 +10334,14 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L43:O45"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B48:P48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E43:H45"/>
     <mergeCell ref="B27:P27"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:I30"/>
@@ -10358,22 +10370,13 @@
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L57:L59"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="H36:J38"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:E38"/>
     <mergeCell ref="G36:G38"/>
-    <mergeCell ref="L43:O45"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B48:P48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E43:H45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="H36:J38"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
